--- a/Chain.of.Heroes/Tools/done/캐릭터/Knight.xlsx
+++ b/Chain.of.Heroes/Tools/done/캐릭터/Knight.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junha\OneDrive\문서\GitHub\Chain_Of_Heroes\Chain.of.Heroes\Tools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7286A4A8-CBA8-45AC-B024-DDC442B13DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C250E-FD11-45CF-81DB-F0E15195FA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="88">
   <si>
     <t>Int</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -337,7 +337,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>캐릭터 해금 맵 ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockMapID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>UnitProperty</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -386,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +416,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -587,43 +602,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -684,13 +662,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -974,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -997,9 +973,10 @@
     <col min="13" max="13" width="24.375" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="23.75" style="17" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="42.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.75" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,8 +1028,11 @@
       <c r="Q1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -1074,8 +1054,9 @@
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1127,8 +1108,11 @@
       <c r="Q3" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
@@ -1172,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>77</v>
@@ -1180,8 +1164,11 @@
       <c r="Q4" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>10020000</v>
       </c>
@@ -1233,8 +1220,11 @@
       <c r="Q5" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>10020001</v>
       </c>
@@ -1286,8 +1276,11 @@
       <c r="Q6" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>10020002</v>
       </c>
@@ -1339,8 +1332,11 @@
       <c r="Q7" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>10020003</v>
       </c>
@@ -1392,8 +1388,11 @@
       <c r="Q8" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>10020004</v>
       </c>
@@ -1445,8 +1444,11 @@
       <c r="Q9" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>10020005</v>
       </c>
@@ -1498,8 +1500,11 @@
       <c r="Q10" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>10020006</v>
       </c>
@@ -1551,8 +1556,11 @@
       <c r="Q11" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>10020007</v>
       </c>
@@ -1604,8 +1612,11 @@
       <c r="Q12" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10020008</v>
       </c>
@@ -1657,8 +1668,11 @@
       <c r="Q13" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>10020009</v>
       </c>
@@ -1710,8 +1724,11 @@
       <c r="Q14" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>10020010</v>
       </c>
@@ -1763,8 +1780,11 @@
       <c r="Q15" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>10020011</v>
       </c>
@@ -1816,8 +1836,11 @@
       <c r="Q16" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>10020012</v>
       </c>
@@ -1869,8 +1892,11 @@
       <c r="Q17" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10020013</v>
       </c>
@@ -1922,114 +1948,123 @@
       <c r="Q18" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R18" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>10020014</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="17">
-        <v>15</v>
-      </c>
-      <c r="E19" s="17">
-        <v>40</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
+      <c r="C19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="18">
+        <v>15</v>
+      </c>
+      <c r="E19" s="18">
+        <v>40</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
         <v>240</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="18">
         <v>60</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="18">
         <v>82</v>
       </c>
-      <c r="J19" s="17">
-        <v>81</v>
-      </c>
-      <c r="K19" s="17">
+      <c r="J19" s="18">
+        <v>81</v>
+      </c>
+      <c r="K19" s="18">
         <v>1182</v>
       </c>
-      <c r="L19" s="17">
-        <v>15</v>
-      </c>
-      <c r="M19" s="17">
+      <c r="L19" s="18">
+        <v>15</v>
+      </c>
+      <c r="M19" s="18">
         <v>1.3</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="O19" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="P19" s="17" t="s">
+      <c r="O19" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" s="18" t="s">
         <v>78</v>
       </c>
       <c r="Q19" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
+      <c r="R19" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>10020015</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="C20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="17">
         <v>16</v>
       </c>
-      <c r="E20" s="19">
-        <v>40</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="E20" s="17">
+        <v>40</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
         <v>270</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <v>66</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="17">
         <v>90</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="17">
         <v>89</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="17">
         <v>1241</v>
       </c>
-      <c r="L20" s="19">
-        <v>15</v>
-      </c>
-      <c r="M20" s="19">
-        <v>1.3</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="P20" s="19" t="s">
+      <c r="L20" s="17">
+        <v>15</v>
+      </c>
+      <c r="M20" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="Q20" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R20" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>10020016</v>
       </c>
@@ -2081,8 +2116,11 @@
       <c r="Q21" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>10020017</v>
       </c>
@@ -2134,8 +2172,11 @@
       <c r="Q22" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>10020018</v>
       </c>
@@ -2187,8 +2228,11 @@
       <c r="Q23" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>10020019</v>
       </c>
@@ -2240,8 +2284,11 @@
       <c r="Q24" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>10020020</v>
       </c>
@@ -2293,8 +2340,11 @@
       <c r="Q25" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>10020021</v>
       </c>
@@ -2346,8 +2396,11 @@
       <c r="Q26" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>10020022</v>
       </c>
@@ -2399,8 +2452,11 @@
       <c r="Q27" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>10020023</v>
       </c>
@@ -2452,8 +2508,11 @@
       <c r="Q28" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>10020024</v>
       </c>
@@ -2505,8 +2564,11 @@
       <c r="Q29" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>10020025</v>
       </c>
@@ -2558,8 +2620,11 @@
       <c r="Q30" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>10020026</v>
       </c>
@@ -2611,8 +2676,11 @@
       <c r="Q31" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>10020027</v>
       </c>
@@ -2664,8 +2732,11 @@
       <c r="Q32" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>10020028</v>
       </c>
@@ -2717,51 +2788,54 @@
       <c r="Q33" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R33" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>10020029</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="17">
+      <c r="C34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="18">
         <v>30</v>
       </c>
-      <c r="E34" s="17">
-        <v>40</v>
-      </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17">
+      <c r="E34" s="18">
+        <v>40</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
         <v>2110</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="18">
         <v>236</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="18">
         <v>333</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="18">
         <v>322</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="18">
         <v>2450</v>
       </c>
-      <c r="L34" s="17">
-        <v>15</v>
-      </c>
-      <c r="M34" s="17">
+      <c r="L34" s="18">
+        <v>15</v>
+      </c>
+      <c r="M34" s="18">
         <v>1.3</v>
       </c>
       <c r="N34" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="O34" s="17" t="s">
+      <c r="O34" s="18" t="s">
         <v>75</v>
       </c>
       <c r="P34" s="17" t="s">
@@ -2770,61 +2844,67 @@
       <c r="Q34" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="18">
+      <c r="R34" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
         <v>10020030</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="19">
+      <c r="C35" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="17">
         <v>31</v>
       </c>
-      <c r="E35" s="19">
-        <v>40</v>
-      </c>
-      <c r="F35" s="19">
-        <v>0</v>
-      </c>
-      <c r="G35" s="19">
+      <c r="E35" s="17">
+        <v>40</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
         <v>2530</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="17">
         <v>259</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="17">
         <v>366</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="17">
         <v>354</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="17">
         <v>2572</v>
       </c>
-      <c r="L35" s="19">
-        <v>15</v>
-      </c>
-      <c r="M35" s="19">
-        <v>1.3</v>
-      </c>
-      <c r="N35" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="P35" s="19" t="s">
+      <c r="L35" s="17">
+        <v>15</v>
+      </c>
+      <c r="M35" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="Q35" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q35" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R35" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>10020031</v>
       </c>
@@ -2876,8 +2956,11 @@
       <c r="Q36" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>10020032</v>
       </c>
@@ -2929,8 +3012,11 @@
       <c r="Q37" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>10020033</v>
       </c>
@@ -2982,8 +3068,11 @@
       <c r="Q38" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>10020034</v>
       </c>
@@ -3035,8 +3124,11 @@
       <c r="Q39" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>10020035</v>
       </c>
@@ -3088,8 +3180,11 @@
       <c r="Q40" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>10020036</v>
       </c>
@@ -3141,8 +3236,11 @@
       <c r="Q41" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>10020037</v>
       </c>
@@ -3194,8 +3292,11 @@
       <c r="Q42" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>10020038</v>
       </c>
@@ -3247,8 +3348,11 @@
       <c r="Q43" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>10020039</v>
       </c>
@@ -3299,6 +3403,9 @@
       </c>
       <c r="Q44" s="17" t="s">
         <v>84</v>
+      </c>
+      <c r="R44" s="17">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
